--- a/scripts/data.xlsx
+++ b/scripts/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pr0\LaPiscina\scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C19BD1AA-E8DD-4DC8-A92A-70C46C69E0F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F603B897-A32E-4C44-9DA4-DD12359D861E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4221A036-3E3A-4BA3-88C6-3BFB7768513E}"/>
+    <workbookView xWindow="30600" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4221A036-3E3A-4BA3-88C6-3BFB7768513E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="98">
   <si>
     <t>id</t>
   </si>
@@ -309,6 +309,27 @@
   </si>
   <si>
     <t>Just dipping my feet</t>
+  </si>
+  <si>
+    <t>Prize</t>
+  </si>
+  <si>
+    <t>Cocktail</t>
+  </si>
+  <si>
+    <t>Appetizer</t>
+  </si>
+  <si>
+    <t>T-Shirt</t>
+  </si>
+  <si>
+    <t>VIP Suite</t>
+  </si>
+  <si>
+    <t>trait_type_3</t>
+  </si>
+  <si>
+    <t>value_3</t>
   </si>
 </sst>
 </file>
@@ -669,28 +690,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F70C978D-0683-42DE-B349-75C0327DAB9E}">
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.83984375" style="1"/>
-    <col min="2" max="2" width="19.26171875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="44.7890625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.68359375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7890625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.7890625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.578125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10.734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.15625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.83984375" style="1"/>
+    <col min="1" max="1" width="8.85546875" style="1"/>
+    <col min="2" max="2" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -721,8 +742,14 @@
       <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -753,8 +780,14 @@
       <c r="J2" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -785,8 +818,14 @@
       <c r="J3" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K3" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -817,8 +856,14 @@
       <c r="J4" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K4" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -849,8 +894,14 @@
       <c r="J5" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K5" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -881,8 +932,14 @@
       <c r="J6" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K6" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -913,8 +970,14 @@
       <c r="J7" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K7" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -945,8 +1008,14 @@
       <c r="J8" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K8" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -977,8 +1046,14 @@
       <c r="J9" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K9" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1009,8 +1084,14 @@
       <c r="J10" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K10" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1041,8 +1122,14 @@
       <c r="J11" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K11" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1073,8 +1160,14 @@
       <c r="J12" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K12" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1105,8 +1198,14 @@
       <c r="J13" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K13" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1137,8 +1236,14 @@
       <c r="J14" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K14" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1169,8 +1274,14 @@
       <c r="J15" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K15" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1201,8 +1312,14 @@
       <c r="J16" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K16" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1233,8 +1350,14 @@
       <c r="J17" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K17" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1265,8 +1388,14 @@
       <c r="J18" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K18" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1297,8 +1426,14 @@
       <c r="J19" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K19" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -1329,8 +1464,14 @@
       <c r="J20" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K20" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -1360,6 +1501,12 @@
       </c>
       <c r="J21" s="1" t="s">
         <v>35</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
